--- a/Excel/Practice Files/Book1.xlsx
+++ b/Excel/Practice Files/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7f56760ede809be0/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{01AE7772-82EF-47C8-9C6B-8DB7DE04D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6461E0D5-96B9-411B-8D22-7FDC15F6B38B}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="8_{01AE7772-82EF-47C8-9C6B-8DB7DE04D693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDB106CE-09C0-4762-B8E7-767DF2DAA9FA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2268" yWindow="2268" windowWidth="17280" windowHeight="9960" xr2:uid="{E15892F7-0B68-457B-A3F1-DF7AAF35C365}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{E15892F7-0B68-457B-A3F1-DF7AAF35C365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
       <calculatedColumnFormula>Table3[[#This Row],[level]]*2</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{88B08466-C166-45BD-A4F5-70B84D713577}" name="skill &amp; level" dataDxfId="0">
-      <calculatedColumnFormula>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</calculatedColumnFormula>
+      <calculatedColumnFormula>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{93E247D5-E63A-4915-93B5-BADED86F702E}" name="skill known"/>
   </tableColumns>
@@ -480,7 +480,7 @@
   <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,8 +527,8 @@
         <v>6</v>
       </c>
       <c r="E3" t="str">
-        <f>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</f>
-        <v>Excel- 3</v>
+        <f>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</f>
+        <v>Excel - 3</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -549,8 +549,8 @@
         <v>8</v>
       </c>
       <c r="E4" t="str">
-        <f>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</f>
-        <v>Python- 4</v>
+        <f>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</f>
+        <v>Python - 4</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -571,8 +571,8 @@
         <v>10</v>
       </c>
       <c r="E5" t="str">
-        <f>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</f>
-        <v>SQl- 5</v>
+        <f>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</f>
+        <v>SQl - 5</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -593,8 +593,8 @@
         <v>4</v>
       </c>
       <c r="E6" t="str">
-        <f>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</f>
-        <v>PowerBI- 2</v>
+        <f>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</f>
+        <v>PowerBI - 2</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -615,8 +615,8 @@
         <v>6</v>
       </c>
       <c r="E7" t="str">
-        <f>Table3[[#This Row],[Skill]] &amp; "- " &amp; Table3[[#This Row],[level]]</f>
-        <v>Tableau- 3</v>
+        <f>Table3[[#This Row],[Skill]] &amp; " - " &amp; Table3[[#This Row],[level]]</f>
+        <v>Tableau - 3</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
